--- a/KENNEDY NAKEEL.xlsx
+++ b/KENNEDY NAKEEL.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="645" windowWidth="17715" windowHeight="11250" activeTab="2"/>
+    <workbookView minimized="1" xWindow="960" yWindow="645" windowWidth="17715" windowHeight="11250" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="OCTOBER 21" sheetId="1" r:id="rId1"/>
@@ -3441,16 +3441,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="L21:S21"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="P22:S22"/>
+    <mergeCell ref="N42:O42"/>
+    <mergeCell ref="P42:Q42"/>
     <mergeCell ref="A26:H26"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="E27:H27"/>
     <mergeCell ref="C47:D47"/>
     <mergeCell ref="E47:F47"/>
-    <mergeCell ref="L21:S21"/>
-    <mergeCell ref="L22:O22"/>
-    <mergeCell ref="P22:S22"/>
-    <mergeCell ref="N42:O42"/>
-    <mergeCell ref="P42:Q42"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:A22">
     <cfRule type="notContainsText" dxfId="7" priority="3" operator="notContains" text="VACCANT">
@@ -3477,7 +3477,7 @@
   <dimension ref="A2:W47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4215,10 +4215,12 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="G19" s="8"/>
+      <c r="G19" s="8">
+        <v>2500</v>
+      </c>
       <c r="H19" s="37">
         <f t="shared" si="1"/>
-        <v>3500</v>
+        <v>1000</v>
       </c>
       <c r="L19" s="39" t="s">
         <v>51</v>
@@ -4359,11 +4361,11 @@
       </c>
       <c r="G23" s="8">
         <f>SUM(G6:G22)</f>
-        <v>19700</v>
+        <v>22200</v>
       </c>
       <c r="H23" s="24">
         <f>SUM(H6:H22)</f>
-        <v>25900</v>
+        <v>23400</v>
       </c>
       <c r="L23" s="26" t="s">
         <v>12</v>
@@ -4564,7 +4566,7 @@
       </c>
       <c r="F29" s="13">
         <f>G23</f>
-        <v>19700</v>
+        <v>22200</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -4962,7 +4964,7 @@
       </c>
       <c r="F45" s="18">
         <f>F29+F30+F32-G33</f>
-        <v>19305</v>
+        <v>21805</v>
       </c>
       <c r="G45" s="18">
         <f>SUM(G35:G44)</f>
@@ -4970,7 +4972,7 @@
       </c>
       <c r="H45" s="18">
         <f>F45-G45</f>
-        <v>16360</v>
+        <v>18860</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">

--- a/KENNEDY NAKEEL.xlsx
+++ b/KENNEDY NAKEEL.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="66">
   <si>
     <t>RENT STATEMENT</t>
   </si>
@@ -210,6 +210,18 @@
   </si>
   <si>
     <t>PAID ON 4/12</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>VACCATED</t>
+  </si>
+  <si>
+    <t>VERONICA VACCATED</t>
+  </si>
+  <si>
+    <t>PAID ON 15/12</t>
   </si>
 </sst>
 </file>
@@ -671,13 +683,13 @@
       <sheetName val="Sheet2"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
       <sheetData sheetId="7">
         <row r="28">
           <cell r="H28" t="str">
@@ -685,16 +697,16 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11"/>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-      <sheetData sheetId="15"/>
-      <sheetData sheetId="16"/>
-      <sheetData sheetId="17"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16" refreshError="1"/>
+      <sheetData sheetId="17" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -3441,16 +3453,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A26:H26"/>
+    <mergeCell ref="A27:D27"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="C47:D47"/>
+    <mergeCell ref="E47:F47"/>
     <mergeCell ref="L21:S21"/>
     <mergeCell ref="L22:O22"/>
     <mergeCell ref="P22:S22"/>
     <mergeCell ref="N42:O42"/>
     <mergeCell ref="P42:Q42"/>
-    <mergeCell ref="A26:H26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="E27:H27"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="E47:F47"/>
   </mergeCells>
   <conditionalFormatting sqref="A6:A22">
     <cfRule type="notContainsText" dxfId="7" priority="3" operator="notContains" text="VACCANT">
@@ -3476,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:W47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3867,10 +3879,12 @@
         <f t="shared" si="0"/>
         <v>7500</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="8">
+        <v>3000</v>
+      </c>
       <c r="H11" s="37">
         <f t="shared" si="1"/>
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="L11" s="20"/>
       <c r="M11" s="6">
@@ -4066,27 +4080,25 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B16" s="6">
         <v>11</v>
       </c>
       <c r="C16" s="45"/>
-      <c r="D16" s="7">
-        <f>'NOVEMBER  21'!H16:H32</f>
-        <v>1200</v>
-      </c>
-      <c r="E16" s="23">
-        <v>1200</v>
-      </c>
+      <c r="D16" s="7"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="24">
         <f t="shared" si="0"/>
-        <v>2400</v>
+        <v>0</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="37">
         <f t="shared" si="1"/>
-        <v>2400</v>
+        <v>0</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
       </c>
       <c r="L16" s="21"/>
       <c r="M16" s="6">
@@ -4308,25 +4320,31 @@
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>36</v>
+        <v>62</v>
       </c>
       <c r="B22" s="6">
         <v>17</v>
       </c>
-      <c r="C22" s="45"/>
+      <c r="C22" s="45">
+        <v>2500</v>
+      </c>
       <c r="D22" s="7">
         <f>'NOVEMBER  21'!H22:H38</f>
         <v>0</v>
       </c>
-      <c r="E22" s="23"/>
+      <c r="E22" s="23">
+        <v>2500</v>
+      </c>
       <c r="F22" s="24">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="8"/>
+        <v>5000</v>
+      </c>
+      <c r="G22" s="8">
+        <v>2500</v>
+      </c>
       <c r="H22" s="37">
         <f>F22-G22</f>
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="L22" s="59" t="s">
         <v>11</v>
@@ -4349,23 +4367,23 @@
       <c r="C23" s="48"/>
       <c r="D23" s="7">
         <f>SUM(D6:D22)</f>
-        <v>6200</v>
+        <v>5000</v>
       </c>
       <c r="E23" s="49">
         <f>SUM(E6:E22)</f>
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="F23" s="24">
         <f>SUM(F6:F22)</f>
-        <v>45600</v>
+        <v>48200</v>
       </c>
       <c r="G23" s="8">
         <f>SUM(G6:G22)</f>
-        <v>22200</v>
+        <v>27700</v>
       </c>
       <c r="H23" s="24">
         <f>SUM(H6:H22)</f>
-        <v>23400</v>
+        <v>20500</v>
       </c>
       <c r="L23" s="26" t="s">
         <v>12</v>
@@ -4393,7 +4411,10 @@
     <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24" s="39"/>
       <c r="B24" s="39"/>
-      <c r="C24" s="39"/>
+      <c r="C24" s="39">
+        <f>SUM(C6:C23)</f>
+        <v>8500</v>
+      </c>
       <c r="D24" s="7">
         <f>'[1]MARCH 21'!H24:H40</f>
         <v>0</v>
@@ -4557,7 +4578,7 @@
       </c>
       <c r="B29" s="13">
         <f>E23</f>
-        <v>33400</v>
+        <v>34700</v>
       </c>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -4566,7 +4587,7 @@
       </c>
       <c r="F29" s="13">
         <f>G23</f>
-        <v>22200</v>
+        <v>27700</v>
       </c>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -4649,13 +4670,20 @@
       <c r="A32" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B32" s="13"/>
+      <c r="B32" s="13">
+        <f>C9+C22</f>
+        <v>5500</v>
+      </c>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
       <c r="E32" s="25"/>
       <c r="F32" s="13"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
+      <c r="J32" s="53">
+        <f>E23</f>
+        <v>34700</v>
+      </c>
       <c r="L32" s="15" t="s">
         <v>61</v>
       </c>
@@ -4682,7 +4710,7 @@
       </c>
       <c r="C33" s="13">
         <f>B33*B29</f>
-        <v>3340</v>
+        <v>3470</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="25" t="s">
@@ -4693,9 +4721,13 @@
       </c>
       <c r="G33" s="13">
         <f>F33*B29</f>
-        <v>3340</v>
+        <v>3470</v>
       </c>
       <c r="H33" s="11"/>
+      <c r="J33" s="55">
+        <f>C33</f>
+        <v>3470</v>
+      </c>
       <c r="L33" s="15"/>
       <c r="M33" s="11"/>
       <c r="N33" s="17"/>
@@ -4720,6 +4752,10 @@
       <c r="F34" s="15"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
+      <c r="J34" s="53">
+        <f>J32-J33</f>
+        <v>31230</v>
+      </c>
       <c r="L34" s="15"/>
       <c r="M34" s="11"/>
       <c r="N34" s="17"/>
@@ -4746,6 +4782,10 @@
       </c>
       <c r="G35" s="17"/>
       <c r="H35" s="11"/>
+      <c r="J35">
+        <f>5500</f>
+        <v>5500</v>
+      </c>
       <c r="L35" s="15"/>
       <c r="M35" s="11"/>
       <c r="N35" s="17"/>
@@ -4764,6 +4804,10 @@
       <c r="F36" s="35"/>
       <c r="G36" s="35"/>
       <c r="H36" s="11"/>
+      <c r="J36" s="53">
+        <f>J34+J35</f>
+        <v>36730</v>
+      </c>
       <c r="L36" s="15"/>
       <c r="M36" s="11"/>
       <c r="N36" s="17"/>
@@ -4790,6 +4834,9 @@
         <v>2945</v>
       </c>
       <c r="H37" s="11"/>
+      <c r="J37">
+        <v>24110</v>
+      </c>
       <c r="L37" s="15"/>
       <c r="M37" s="11"/>
       <c r="N37" s="17"/>
@@ -4800,14 +4847,26 @@
       <c r="S37" s="11"/>
     </row>
     <row r="38" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A38" s="15"/>
+      <c r="A38" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="B38" s="11"/>
-      <c r="C38" s="17"/>
+      <c r="C38" s="17">
+        <v>20400</v>
+      </c>
       <c r="D38" s="11"/>
-      <c r="E38" s="15"/>
+      <c r="E38" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="F38" s="11"/>
-      <c r="G38" s="17"/>
+      <c r="G38" s="17">
+        <v>20400</v>
+      </c>
       <c r="H38" s="11"/>
+      <c r="J38" s="53">
+        <f>J36-J37</f>
+        <v>12620</v>
+      </c>
       <c r="L38" s="15"/>
       <c r="M38" s="11"/>
       <c r="N38" s="17"/>
@@ -4820,12 +4879,18 @@
     <row r="39" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A39" s="15"/>
       <c r="B39" s="11"/>
-      <c r="C39" s="17"/>
+      <c r="C39" s="17">
+        <v>24110</v>
+      </c>
       <c r="D39" s="11"/>
       <c r="E39" s="15"/>
       <c r="F39" s="11"/>
       <c r="G39" s="17"/>
       <c r="H39" s="11"/>
+      <c r="J39" s="53">
+        <f>J38+6200</f>
+        <v>18820</v>
+      </c>
       <c r="L39" s="15"/>
       <c r="M39" s="11"/>
       <c r="N39" s="17"/>
@@ -4836,9 +4901,13 @@
       <c r="S39" s="11"/>
     </row>
     <row r="40" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A40" s="15"/>
+      <c r="A40" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="B40" s="11"/>
-      <c r="C40" s="17"/>
+      <c r="C40" s="17">
+        <v>1200</v>
+      </c>
       <c r="D40" s="11"/>
       <c r="E40" s="15"/>
       <c r="F40" s="11"/>
@@ -4949,30 +5018,30 @@
       </c>
       <c r="B45" s="18">
         <f>B32+B29+B30+B31-C33</f>
-        <v>36705</v>
+        <v>43375</v>
       </c>
       <c r="C45" s="18">
         <f>SUM(C35:C44)</f>
-        <v>2945</v>
+        <v>48655</v>
       </c>
       <c r="D45" s="18">
         <f>B45-C45</f>
-        <v>33760</v>
+        <v>-5280</v>
       </c>
       <c r="E45" s="12" t="s">
         <v>23</v>
       </c>
       <c r="F45" s="18">
         <f>F29+F30+F32-G33</f>
-        <v>21805</v>
+        <v>27175</v>
       </c>
       <c r="G45" s="18">
         <f>SUM(G35:G44)</f>
-        <v>2945</v>
+        <v>23345</v>
       </c>
       <c r="H45" s="18">
         <f>F45-G45</f>
-        <v>18860</v>
+        <v>3830</v>
       </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.25">
